--- a/Content/SSE ELEC FLAT.xlsx
+++ b/Content/SSE ELEC FLAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renis Kraja\Desktop\Salesforce\Pricebooks_24_11_2020\Pricebooks_24_11_2020\SSE\Original Pricebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F80B05-1A85-4257-BABB-7A962EB21677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87831FD-13BF-469C-B73B-EC4FDF7E6AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{16C488E0-4796-4339-92DD-F66807839E74}"/>
   </bookViews>
@@ -7664,7 +7664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -8069,7 +8069,7 @@
         <v>29142815</v>
       </c>
       <c r="C5" s="2">
-        <v>44166</v>
+        <v>44470</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>45</v>
